--- a/학습자료/단답형/객관식_고려_연도(왕)_전기.xlsx
+++ b/학습자료/단답형/객관식_고려_연도(왕)_전기.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>고려 건국
-1. 918년 : 태조
-2. 930년 : 태조
-3. 956년 : 광종</t>
+1. 1145년 : 인종
+2. 918년 : 태조
+3. 1123년 : 인종</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 918년 : 태조</t>
+          <t>2, 918년 : 태조</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>흑창 설치
-1. 918년 : 태조
-2. 1108년 : 예종
-3. 1013년 : 현종</t>
+1. 946년 : 정종
+2. 996년 : 성종
+3. 918년 : 태조</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 918년 : 태조</t>
+          <t>3, 918년 : 태조</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>송악으로 천도
-1. 919년 : 태조
-2. 930년 : 태조
-3. 1086년 : 선종</t>
+1. 946년 : 정종
+2. 919년 : 태조
+3. 1039년 : 정종</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 919년 : 태조</t>
+          <t>2, 919년 : 태조</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>개경에 시전 설치
-1. 1102년 : 숙종
-2. 1009년 : 목종
-3. 919년 : 태조</t>
+1. 1034년 : 덕종
+2. 919년 : 태조
+3. 1112년 : 예종</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 919년 : 태조</t>
+          <t>2, 919년 : 태조</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>학보 설치
-1. 930년 : 태조
-2. 995년 : 성종
-3. 993년 : 성종</t>
+1. 962년 : 광종
+2. 930년 : 태조
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 930년 : 태조</t>
+          <t>2, 930년 : 태조</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>후삼국 통일
-1. 1112년 : 예종
-2. 1009년 : 목종
-3. 936년 : 태조</t>
+1. 936년 : 태조
+2. 1109년 : 예종
+3. 993년 : 성종</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 936년 : 태조</t>
+          <t>1, 936년 : 태조</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>역분전 지급
-1. 987년 : 성종
-2. 940년 : 태조
-3. 1019년 : 현종</t>
+1. 942년 : 태조
+2. 1057년 : 문종
+3. 940년 : 태조</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 940년 : 태조</t>
+          <t>3, 940년 : 태조</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>만부교 사건
-1. 1129년 : 인종
-2. 942년 : 태조
-3. 1029년 : 현종</t>
+1. 1145년 : 인종
+2. 1108년 : 예종
+3. 942년 : 태조</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 942년 : 태조</t>
+          <t>3, 942년 : 태조</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>훈요 10조 저술
-1. 1123년 : 인종
-2. 1116년 : 예종
-3. 943년 : 태조</t>
+1. 943년 : 태조
+2. 963년 : 광종
+3. 1018년 : 현종</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 943년 : 태조</t>
+          <t>1, 943년 : 태조</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>왕규의 난
-1. 945년 : 혜종
-2. 962년 : 광종
-3. 1104년 : 숙종</t>
+1. 1044년 : 정종
+2. 1029년 : 현종
+3. 945년 : 혜종</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 945년 : 혜종</t>
+          <t>3, 945년 : 혜종</t>
         </is>
       </c>
     </row>
@@ -600,8 +600,8 @@
         <is>
           <t>서경 천도 실패
 1. 946년 : 정종
-2. 1044년 : 정종
-3. 987년 : 성종</t>
+2. 1018년 : 현종
+3. 1099년 : 숙종</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>광학보 설치
-1. 1067년 : 문종
-2. 946년 : 정종
-3. 993년 : 성종</t>
+1. 1077년 : 문종
+2. 995년 : 성종
+3. 946년 : 정종</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 946년 : 정종</t>
+          <t>3, 946년 : 정종</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>광군 설치
-1. 962년 : 광종
-2. 947년 : 정종
-3. 942년 : 태조</t>
+1. 993년 : 성종
+2. 1009년 : 목종
+3. 947년 : 정종</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 947년 : 정종</t>
+          <t>3, 947년 : 정종</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>주현공부법 실시
-1. 949년 : 광종
-2. 1067년 : 문종
-3. 1101년 : 숙종</t>
+1. 1009년 : 목종
+2. 1018년 : 현종
+3. 949년 : 광종</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 949년 : 광종</t>
+          <t>3, 949년 : 광종</t>
         </is>
       </c>
     </row>
@@ -659,8 +659,8 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>노비안검법 실시
-1. 996년 : 성종
-2. 1044년 : 정종
+1. 1029년 : 현종
+2. 1127년 : 인종
 3. 956년 : 광종</t>
         </is>
       </c>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>과거제 실시
-1. 958년 : 광종
-2. 1102년 : 숙종
-3. 956년 : 광종</t>
+1. 1126년 : 인종
+2. 958년 : 광종
+3. 946년 : 정종</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 958년 : 광종</t>
+          <t>2, 958년 : 광종</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>승과제도 실시
-1. 1129년 : 인종
-2. 943년 : 태조
-3. 958년 : 광종</t>
+1. 958년 : 광종
+2. 1116년 : 예종
+3. 993년 : 성종</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 958년 : 광종</t>
+          <t>1, 958년 : 광종</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>공복 제정
-1. 1077년 : 문종
-2. 960년 : 광종
-3. 918년 : 태조</t>
+1. 1097년 : 숙종
+2. 1129년 : 인종
+3. 960년 : 광종</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 960년 : 광종</t>
+          <t>3, 960년 : 광종</t>
         </is>
       </c>
     </row>
@@ -719,9 +719,9 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>송과 국교 수립
-1. 998년 : 목종
+1. 1125년 : 인종
 2. 962년 : 광종
-3. 963년 : 광종</t>
+3. 992년 : 성종</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>제위보 설치
-1. 963년 : 광종
-2. 1129년 : 인종
-3. 1033년 : 덕종</t>
+1. 993년 : 성종
+2. 1020년 : 현종
+3. 963년 : 광종</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 963년 : 광종</t>
+          <t>3, 963년 : 광종</t>
         </is>
       </c>
     </row>
@@ -749,9 +749,9 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>황무지 개간 규정 마련
-1. 1145년 : 인종
+1. 1135년 : 인종
 2. 963년 : 광종
-3. 1099년 : 숙종</t>
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -765,8 +765,8 @@
         <is>
           <t>귀법사 창건
 1. 963년 : 광종
-2. 1145년 : 인종
-3. 1011년 : 현종</t>
+2. 1039년 : 정종
+3. 1097년 : 숙종</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,8 +779,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>시정 전시과 시행
-1. 982년 : 성종
-2. 1107년 : 예종
+1. 1126년 : 인종
+2. 1009년 : 목종
 3. 976년 : 경종</t>
         </is>
       </c>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>최승로의 시무 28조 저술
-1. 982년 : 성종
-2. 1055년 : 문종
-3. 1086년 : 선종</t>
+1. 936년 : 태조
+2. 982년 : 성종
+3. 1108년 : 예종</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 982년 : 성종</t>
+          <t>2, 982년 : 성종</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>최초로 지방관 파견
-1. 1112년 : 예종
-2. 983년 : 성종
-3. 1125년 : 인종</t>
+1. 1049년 : 문종
+2. 1108년 : 예종
+3. 983년 : 성종</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 983년 : 성종</t>
+          <t>3, 983년 : 성종</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>의창 설치
-1. 986년 : 성종
-2. 993년 : 성종
-3. 1011년 : 현종</t>
+1. 1112년 : 예종
+2. 990년 : 성종
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1, 986년 : 성종</t>
+          <t>3, 986년 : 성종</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>거란의 정안국 격파
-1. 1019년 : 현종
-2. 986년 : 성종
-3. 1107년 : 예종</t>
+1. 918년 : 태조
+2. 1010년 : 현종
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 986년 : 성종</t>
+          <t>3, 986년 : 성종</t>
         </is>
       </c>
     </row>
@@ -854,8 +854,8 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>지방 12목에 경학박사 의학박사 파견
-1. 990년 : 성종
-2. 945년 : 혜종
+1. 1013년 : 현종
+2. 918년 : 태조
 3. 987년 : 성종</t>
         </is>
       </c>
@@ -869,9 +869,9 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>노비환천법 실시
-1. 986년 : 성종
+1. 1116년 : 예종
 2. 987년 : 성종
-3. 1125년 : 인종</t>
+3. 1127년 : 인종</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -885,8 +885,8 @@
         <is>
           <t>비서성 수서원 설치
 1. 990년 : 성종
-2. 1107년 : 예종
-3. 1034년 : 덕종</t>
+2. 1104년 : 숙종
+3. 1101년 : 숙종</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -900,8 +900,8 @@
         <is>
           <t>국자감 설치 및 정비
 1. 992년 : 성종
-2. 1101년 : 숙종
-3. 1145년 : 인종</t>
+2. 960년 : 광종
+3. 1049년 : 문종</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>상평창 설치
-1. 956년 : 광종
-2. 993년 : 성종
-3. 1020년 : 현종</t>
+1. 993년 : 성종
+2. 996년 : 성종
+3. 1135년 : 인종</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 993년 : 성종</t>
+          <t>1, 993년 : 성종</t>
         </is>
       </c>
     </row>
@@ -929,8 +929,8 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>거란의 1차 침입 및 서희의 강동 6주 획득
-1. 998년 : 목종
-2. 1099년 : 숙종
+1. 983년 : 성종
+2. 1013년 : 현종
 3. 993년 : 성종</t>
         </is>
       </c>
@@ -944,8 +944,8 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>문산계 무산계 정비
-1. 918년 : 태조
-2. 1127년 : 인종
+1. 982년 : 성종
+2. 1109년 : 예종
 3. 995년 : 성종</t>
         </is>
       </c>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>문신월과법 실시
-1. 1102년 : 숙종
-2. 1029년 : 현종
-3. 995년 : 성종</t>
+1. 995년 : 성종
+2. 1013년 : 현종
+3. 992년 : 성종</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3, 995년 : 성종</t>
+          <t>1, 995년 : 성종</t>
         </is>
       </c>
     </row>
@@ -974,293 +974,293 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>6위 설치
+1. 1126년 : 인종
+2. 1112년 : 예종
+3. 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3경 체제 완성
+1. 1101년 : 숙종
+2. 996년 : 성종
+3. 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>건원중보 발행
+1. 1129년 : 인종
+2. 1039년 : 정종
+3. 996년 : 성종</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 996년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>개정 전시과 시행
+1. 1145년 : 인종
+2. 1049년 : 문종
+3. 998년 : 목종</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 998년 : 목종</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>강조의 정변
+1. 1108년 : 예종
+2. 1123년 : 인종
+3. 1009년 : 목종</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 1009년 : 목종</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>거란의 2차 침입
+1. 1010년 : 현종
+2. 962년 : 광종
+3. 946년 : 정종</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 1010년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>초조대장경 간행 시작
+1. 1133년 : 인종
+2. 1011년 : 현종
+3. 1101년 : 숙종</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 1011년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7대실록 편찬 시작
+1. 1119년 : 예종
+2. 1013년 : 현종
+3. 942년 : 태조</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 1013년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>현화사 건립
+1. 1018년 : 현종
+2. 947년 : 정종
+3. 943년 : 태조</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5도 양계 4도호부 8목 및 3경 정비
+1. 1104년 : 숙종
+2. 1129년 : 인종
+3. 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5도에 안찰사 파견
+1. 1018년 : 현종
+2. 998년 : 목종
+3. 936년 : 태조</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>거란의 3차 침입
+1. 1009년 : 목종
+2. 1018년 : 현종
+3. 1170년 : 의종</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>강감찬의 흥화진 전투
+1. 1018년 : 현종
+2. 998년 : 목종
+3. 987년 : 성종</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>귀주대첩
+1. 1112년 : 예종
+2. 1019년 : 현종
+3. 1044년 : 정종</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2, 1019년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>최치원 문창후에 추시 및 문묘에 배향
+1. 996년 : 성종
+2. 1020년 : 현종
+3. 940년 : 태조</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2, 1020년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>개경에 나성 축조
+1. 1013년 : 현종
+2. 1029년 : 현종
+3. 942년 : 태조</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2, 1029년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>천리장성 축조 시작
+1. 1033년 : 덕종
+2. 936년 : 태조
+3. 947년 : 정종</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1, 1033년 : 덕종</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7대실록 완성
+1. 1034년 : 덕종
+2. 976년 : 경종
+3. 1076년 : 문종</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1, 1034년 : 덕종</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>천자수모법 실시
+1. 993년 : 성종
+2. 918년 : 태조
+3. 1039년 : 정종</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3, 1039년 : 정종</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>천리장성 완공
 1. 995년 : 성종
 2. 982년 : 성종
-3. 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>3경 체제 완성
-1. 995년 : 성종
-2. 947년 : 정종
-3. 1129년 : 인종</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>건원중보 발행
-1. 996년 : 성종
-2. 1034년 : 덕종
-3. 942년 : 태조</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 996년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>개정 전시과 시행
-1. 998년 : 목종
-2. 940년 : 태조
-3. 1126년 : 인종</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 998년 : 목종</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>강조의 정변
-1. 1009년 : 목종
-2. 1112년 : 예종
-3. 945년 : 혜종</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 1009년 : 목종</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>거란의 2차 침입
-1. 1170년 : 의종
-2. 990년 : 성종
-3. 1010년 : 현종</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3, 1010년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>초조대장경 간행 시작
-1. 1011년 : 현종
-2. 963년 : 광종
-3. 1044년 : 정종</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1, 1011년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>7대실록 편찬 시작
-1. 1109년 : 예종
-2. 987년 : 성종
-3. 1013년 : 현종</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 1013년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>현화사 건립
-1. 1129년 : 인종
-2. 1018년 : 현종
-3. 1029년 : 현종</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>5도 양계 4도호부 8목 및 3경 정비
-1. 956년 : 광종
-2. 1019년 : 현종
-3. 1018년 : 현종</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>5도에 안찰사 파견
-1. 949년 : 광종
-2. 1018년 : 현종
-3. 945년 : 혜종</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>거란의 3차 침입
-1. 983년 : 성종
-2. 1067년 : 문종
-3. 1018년 : 현종</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>강감찬의 흥화진 전투
-1. 1109년 : 예종
-2. 1018년 : 현종
-3. 998년 : 목종</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>귀주대첩
-1. 942년 : 태조
-2. 1116년 : 예종
-3. 1019년 : 현종</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3, 1019년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>최치원 문창후에 추시 및 문묘에 배향
-1. 1020년 : 현종
-2. 998년 : 목종
-3. 983년 : 성종</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1, 1020년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>개경에 나성 축조
-1. 986년 : 성종
-2. 1029년 : 현종
-3. 1097년 : 숙종</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2, 1029년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>천리장성 축조 시작
-1. 1116년 : 예종
-2. 1033년 : 덕종
-3. 1126년 : 인종</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2, 1033년 : 덕종</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>7대실록 완성
-1. 1034년 : 덕종
-2. 1067년 : 문종
-3. 1019년 : 현종</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1, 1034년 : 덕종</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>천자수모법 실시
-1. 956년 : 광종
-2. 1129년 : 인종
-3. 1039년 : 정종</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>3, 1039년 : 정종</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>천리장성 완공
-1. 1033년 : 덕종
-2. 1109년 : 예종
 3. 1044년 : 정종</t>
         </is>
       </c>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>동서 대비원 설치
-1. 1170년 : 의종
-2. 1123년 : 인종
-3. 1049년 : 문종</t>
+1. 1049년 : 문종
+2. 1126년 : 인종
+3. 1034년 : 덕종</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 1049년 : 문종</t>
+          <t>1, 1049년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>최충의 9재 학당 설립
-1. 1055년 : 문종
-2. 1101년 : 숙종
-3. 1010년 : 현종</t>
+1. 1097년 : 숙종
+2. 1055년 : 문종
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 1055년 : 문종</t>
+          <t>2, 1055년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>삼복제 실시
-1. 1102년 : 숙종
-2. 947년 : 정종
-3. 1057년 : 문종</t>
+1. 1086년 : 선종
+2. 1057년 : 문종
+3. 982년 : 성종</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3, 1057년 : 문종</t>
+          <t>2, 1057년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>남경 설치
-1. 1029년 : 현종
-2. 1049년 : 문종
-3. 1067년 : 문종</t>
+1. 1067년 : 문종
+2. 1125년 : 인종
+3. 1129년 : 인종</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3, 1067년 : 문종</t>
+          <t>1, 1067년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>경정 전시과 시행
-1. 945년 : 혜종
-2. 1076년 : 문종
-3. 1108년 : 예종</t>
+1. 996년 : 성종
+2. 1033년 : 덕종
+3. 1076년 : 문종</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2, 1076년 : 문종</t>
+          <t>3, 1076년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>기인선상법 실시
-1. 1077년 : 문종
-2. 936년 : 태조
-3. 1009년 : 목종</t>
+1. 943년 : 태조
+2. 1077년 : 문종
+3. 1125년 : 인종</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1, 1077년 : 문종</t>
+          <t>2, 1077년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>교장도감 설치
-1. 946년 : 정종
-2. 986년 : 성종
-3. 1086년 : 선종</t>
+1. 1029년 : 현종
+2. 1086년 : 선종
+3. 1044년 : 정종</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3, 1086년 : 선종</t>
+          <t>2, 1086년 : 선종</t>
         </is>
       </c>
     </row>
@@ -1379,9 +1379,9 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>주전도감 설치
-1. 1055년 : 문종
+1. 1039년 : 정종
 2. 1097년 : 숙종
-3. 992년 : 성종</t>
+3. 962년 : 광종</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>의천의 국청사 창건 및 천태종 창시
-1. 1097년 : 숙종
-2. 1049년 : 문종
-3. 1135년 : 인종</t>
+1. 1044년 : 정종
+2. 1097년 : 숙종
+3. 918년 : 태조</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 1097년 : 숙종</t>
+          <t>2, 1097년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>김위제의 건의로 남경 건설 추진
-1. 1099년 : 숙종
-2. 990년 : 성종
-3. 992년 : 성종</t>
+1. 1034년 : 덕종
+2. 1020년 : 현종
+3. 1099년 : 숙종</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1, 1099년 : 숙종</t>
+          <t>3, 1099년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>서적포 설치
-1. 1101년 : 숙종
-2. 919년 : 태조
-3. 943년 : 태조</t>
+1. 1067년 : 문종
+2. 1101년 : 숙종
+3. 1086년 : 선종</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1, 1101년 : 숙종</t>
+          <t>2, 1101년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>의천의 교장 간행
-1. 1133년 : 인종
-2. 1101년 : 숙종
-3. 1049년 : 문종</t>
+1. 1101년 : 숙종
+2. 1010년 : 현종
+3. 976년 : 경종</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2, 1101년 : 숙종</t>
+          <t>1, 1101년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>평양에 기자사당 건립
-1. 960년 : 광종
-2. 1102년 : 숙종
-3. 936년 : 태조</t>
+1. 1102년 : 숙종
+2. 956년 : 광종
+3. 1049년 : 문종</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2, 1102년 : 숙종</t>
+          <t>1, 1102년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1469,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>윤관 별무반 조직
-1. 993년 : 성종
-2. 956년 : 광종
-3. 1104년 : 숙종</t>
+1. 1029년 : 현종
+2. 1104년 : 숙종
+3. 1049년 : 문종</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3, 1104년 : 숙종</t>
+          <t>2, 1104년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>별무반의 여진 정벌
-1. 949년 : 광종
-2. 945년 : 혜종
-3. 1107년 : 예종</t>
+1. 1119년 : 예종
+2. 1107년 : 예종
+3. 1011년 : 현종</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3, 1107년 : 예종</t>
+          <t>2, 1107년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1499,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>동북 9성 축조
-1. 1077년 : 문종
-2. 949년 : 광종
-3. 1108년 : 예종</t>
+1. 1108년 : 예종
+2. 942년 : 태조
+3. 1018년 : 현종</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3, 1108년 : 예종</t>
+          <t>1, 1108년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>동북 9성 여진에 반환
-1. 947년 : 정종
-2. 958년 : 광종
-3. 1109년 : 예종</t>
+1. 1109년 : 예종
+2. 995년 : 성종
+3. 942년 : 태조</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3, 1109년 : 예종</t>
+          <t>1, 1109년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1529,14 +1529,14 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>관학 7재 설치
-1. 986년 : 성종
-2. 1145년 : 인종
-3. 1109년 : 예종</t>
+1. 1029년 : 현종
+2. 1109년 : 예종
+3. 1086년 : 선종</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3, 1109년 : 예종</t>
+          <t>2, 1109년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1544,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>구제도감 설치
-1. 1109년 : 예종
-2. 976년 : 경종
-3. 1112년 : 예종</t>
+1. 1018년 : 현종
+2. 1109년 : 예종
+3. 1099년 : 숙종</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1, 1109년 : 예종</t>
+          <t>2, 1109년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1559,8 +1559,8 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>혜민국 설치
-1. 1086년 : 선종
-2. 962년 : 광종
+1. 1049년 : 문종
+2. 1086년 : 선종
 3. 1112년 : 예종</t>
         </is>
       </c>
@@ -1574,14 +1574,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>청연각 보문각 설치
-1. 1116년 : 예종
-2. 1119년 : 예종
-3. 1013년 : 현종</t>
+1. 956년 : 광종
+2. 995년 : 성종
+3. 1116년 : 예종</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1, 1116년 : 예종</t>
+          <t>3, 1116년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1589,9 +1589,9 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>양현고 설치
-1. 990년 : 성종
+1. 1127년 : 인종
 2. 1119년 : 예종
-3. 1057년 : 문종</t>
+3. 1009년 : 목종</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1604,14 +1604,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>송나라 서긍의 고려도경 저술
-1. 963년 : 광종
-2. 962년 : 광종
-3. 1123년 : 인종</t>
+1. 1013년 : 현종
+2. 1123년 : 인종
+3. 1127년 : 인종</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3, 1123년 : 인종</t>
+          <t>2, 1123년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1619,8 +1619,8 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>이자겸의 금 사대관계 수용
-1. 1119년 : 예종
-2. 1010년 : 현종
+1. 945년 : 혜종
+2. 1055년 : 문종
 3. 1125년 : 인종</t>
         </is>
       </c>
@@ -1634,14 +1634,14 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>이자겸의 난
-1. 1123년 : 인종
-2. 1099년 : 숙종
-3. 1126년 : 인종</t>
+1. 998년 : 목종
+2. 1126년 : 인종
+3. 992년 : 성종</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3, 1126년 : 인종</t>
+          <t>2, 1126년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>유신지교 15조 발표
-1. 1057년 : 문종
-2. 1127년 : 인종
-3. 943년 : 태조</t>
+1. 1127년 : 인종
+2. 949년 : 광종
+3. 1049년 : 문종</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2, 1127년 : 인종</t>
+          <t>1, 1127년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1664,14 +1664,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>서경에 대화궁 건립
-1. 1129년 : 인종
-2. 960년 : 광종
-3. 1104년 : 숙종</t>
+1. 947년 : 정종
+2. 1129년 : 인종
+3. 990년 : 성종</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1, 1129년 : 인종</t>
+          <t>2, 1129년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1679,8 +1679,8 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>무학재 및 무과 폐지
-1. 918년 : 태조
-2. 993년 : 성종
+1. 1129년 : 인종
+2. 947년 : 정종
 3. 1133년 : 인종</t>
         </is>
       </c>
@@ -1694,14 +1694,14 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>묘청의 서경 천도 운동
-1. 947년 : 정종
-2. 1135년 : 인종
-3. 986년 : 성종</t>
+1. 1039년 : 정종
+2. 1109년 : 예종
+3. 1135년 : 인종</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2, 1135년 : 인종</t>
+          <t>3, 1135년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1710,8 +1710,8 @@
         <is>
           <t>김부식의 삼국사기 편찬
 1. 1145년 : 인종
-2. 918년 : 태조
-3. 1108년 : 예종</t>
+2. 945년 : 혜종
+3. 1011년 : 현종</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1724,14 +1724,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>이의방 정중부의 무신정변 발발
-1. 1170년 : 의종
-2. 1127년 : 인종
-3. 995년 : 성종</t>
+1. 1044년 : 정종
+2. 1170년 : 의종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1, 1170년 : 의종</t>
+          <t>2, 1170년 : 의종</t>
         </is>
       </c>
     </row>
